--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.067323333333333</v>
+        <v>2.817654</v>
       </c>
       <c r="H2">
-        <v>3.20197</v>
+        <v>8.452961999999999</v>
       </c>
       <c r="I2">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="J2">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>26.09370240782445</v>
+        <v>83.04760255891399</v>
       </c>
       <c r="R2">
-        <v>234.84332167042</v>
+        <v>747.4284230302259</v>
       </c>
       <c r="S2">
-        <v>0.0004276794948850462</v>
+        <v>0.001729685492424526</v>
       </c>
       <c r="T2">
-        <v>0.0004276794948850463</v>
+        <v>0.001729685492424526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.067323333333333</v>
+        <v>2.817654</v>
       </c>
       <c r="H3">
-        <v>3.20197</v>
+        <v>8.452961999999999</v>
       </c>
       <c r="I3">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="J3">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>19.33001787635445</v>
+        <v>51.029805578486</v>
       </c>
       <c r="R3">
-        <v>173.97016088719</v>
+        <v>459.268250206374</v>
       </c>
       <c r="S3">
-        <v>0.0003168217431267718</v>
+        <v>0.001062830372830279</v>
       </c>
       <c r="T3">
-        <v>0.0003168217431267718</v>
+        <v>0.001062830372830279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.067323333333333</v>
+        <v>2.817654</v>
       </c>
       <c r="H4">
-        <v>3.20197</v>
+        <v>8.452961999999999</v>
       </c>
       <c r="I4">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="J4">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>6.474236049380001</v>
+        <v>20.39445672131</v>
       </c>
       <c r="R4">
-        <v>58.26812444442001</v>
+        <v>183.55011049179</v>
       </c>
       <c r="S4">
-        <v>0.0001061136499562099</v>
+        <v>0.0004247683837917534</v>
       </c>
       <c r="T4">
-        <v>0.0001061136499562099</v>
+        <v>0.0004247683837917534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.067323333333333</v>
+        <v>2.817654</v>
       </c>
       <c r="H5">
-        <v>3.20197</v>
+        <v>8.452961999999999</v>
       </c>
       <c r="I5">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="J5">
-        <v>0.002262082342179458</v>
+        <v>0.005845954264508915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>86.11685186923</v>
+        <v>126.210657173664</v>
       </c>
       <c r="R5">
-        <v>775.05166682307</v>
+        <v>1135.895914562976</v>
       </c>
       <c r="S5">
-        <v>0.00141146745421143</v>
+        <v>0.002628670015462356</v>
       </c>
       <c r="T5">
-        <v>0.00141146745421143</v>
+        <v>0.002628670015462356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1249.616211</v>
       </c>
       <c r="I6">
-        <v>0.8828111335847306</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="J6">
-        <v>0.8828111335847305</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N6">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O6">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P6">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q6">
-        <v>10183.45379058116</v>
+        <v>12277.07287011393</v>
       </c>
       <c r="R6">
-        <v>91651.08411523046</v>
+        <v>110493.6558310254</v>
       </c>
       <c r="S6">
-        <v>0.1669082564548217</v>
+        <v>0.2557024426781057</v>
       </c>
       <c r="T6">
-        <v>0.1669082564548217</v>
+        <v>0.2557024426781057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1249.616211</v>
       </c>
       <c r="I7">
-        <v>0.8828111335847306</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="J7">
-        <v>0.8828111335847305</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q7">
         <v>7543.825737659101</v>
@@ -883,10 +883,10 @@
         <v>67894.4316389319</v>
       </c>
       <c r="S7">
-        <v>0.1236443771204889</v>
+        <v>0.1571200797344044</v>
       </c>
       <c r="T7">
-        <v>0.1236443771204889</v>
+        <v>0.1571200797344044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1249.616211</v>
       </c>
       <c r="I8">
-        <v>0.8828111335847306</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="J8">
-        <v>0.8828111335847305</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N8">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O8">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P8">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q8">
-        <v>2526.666496296294</v>
+        <v>3014.948338048472</v>
       </c>
       <c r="R8">
-        <v>22739.99846666665</v>
+        <v>27134.53504243624</v>
       </c>
       <c r="S8">
-        <v>0.04141242334989378</v>
+        <v>0.06279425582493388</v>
       </c>
       <c r="T8">
-        <v>0.04141242334989378</v>
+        <v>0.06279425582493388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1249.616211</v>
       </c>
       <c r="I9">
-        <v>0.8828111335847306</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="J9">
-        <v>0.8828111335847305</v>
+        <v>0.8642176810560515</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N9">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O9">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P9">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q9">
-        <v>33608.37676058035</v>
+        <v>18657.94300331339</v>
       </c>
       <c r="R9">
-        <v>302475.3908452232</v>
+        <v>167921.4870298205</v>
       </c>
       <c r="S9">
-        <v>0.5508460766595262</v>
+        <v>0.3886009028186074</v>
       </c>
       <c r="T9">
-        <v>0.5508460766595262</v>
+        <v>0.3886009028186074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.08460233333333</v>
+        <v>62.39973333333334</v>
       </c>
       <c r="H10">
-        <v>162.253807</v>
+        <v>187.1992</v>
       </c>
       <c r="I10">
-        <v>0.1146267678229633</v>
+        <v>0.1294644364369149</v>
       </c>
       <c r="J10">
-        <v>0.1146267678229633</v>
+        <v>0.129464436436915</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N10">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O10">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P10">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q10">
-        <v>1322.249288530056</v>
+        <v>1839.171258660178</v>
       </c>
       <c r="R10">
-        <v>11900.2435967705</v>
+        <v>16552.5413279416</v>
       </c>
       <c r="S10">
-        <v>0.02167185395894895</v>
+        <v>0.03830559517876425</v>
       </c>
       <c r="T10">
-        <v>0.02167185395894895</v>
+        <v>0.03830559517876426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.08460233333333</v>
+        <v>62.39973333333334</v>
       </c>
       <c r="H11">
-        <v>162.253807</v>
+        <v>187.1992</v>
       </c>
       <c r="I11">
-        <v>0.1146267678229633</v>
+        <v>0.1294644364369149</v>
       </c>
       <c r="J11">
-        <v>0.1146267678229633</v>
+        <v>0.129464436436915</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q11">
-        <v>979.5122970597988</v>
+        <v>1130.105492068711</v>
       </c>
       <c r="R11">
-        <v>8815.610673538189</v>
+        <v>10170.9494286184</v>
       </c>
       <c r="S11">
-        <v>0.01605434590664335</v>
+        <v>0.02353742930933914</v>
       </c>
       <c r="T11">
-        <v>0.01605434590664334</v>
+        <v>0.02353742930933915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.08460233333333</v>
+        <v>62.39973333333334</v>
       </c>
       <c r="H12">
-        <v>162.253807</v>
+        <v>187.1992</v>
       </c>
       <c r="I12">
-        <v>0.1146267678229633</v>
+        <v>0.1294644364369149</v>
       </c>
       <c r="J12">
-        <v>0.1146267678229633</v>
+        <v>0.129464436436915</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N12">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O12">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P12">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q12">
-        <v>328.069734078878</v>
+        <v>451.6554058404445</v>
       </c>
       <c r="R12">
-        <v>2952.627606709902</v>
+        <v>4064.898652564</v>
       </c>
       <c r="S12">
-        <v>0.005377109616910978</v>
+        <v>0.009406915780658803</v>
       </c>
       <c r="T12">
-        <v>0.005377109616910978</v>
+        <v>0.009406915780658807</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.08460233333333</v>
+        <v>62.39973333333334</v>
       </c>
       <c r="H13">
-        <v>162.253807</v>
+        <v>187.1992</v>
       </c>
       <c r="I13">
-        <v>0.1146267678229633</v>
+        <v>0.1294644364369149</v>
       </c>
       <c r="J13">
-        <v>0.1146267678229633</v>
+        <v>0.129464436436915</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N13">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O13">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P13">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q13">
-        <v>4363.809486858912</v>
+        <v>2795.059773649066</v>
       </c>
       <c r="R13">
-        <v>39274.28538173022</v>
+        <v>25155.5379628416</v>
       </c>
       <c r="S13">
-        <v>0.07152345834045999</v>
+        <v>0.05821449616815274</v>
       </c>
       <c r="T13">
-        <v>0.07152345834045999</v>
+        <v>0.05821449616815276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1415573333333333</v>
+        <v>0.2274616666666667</v>
       </c>
       <c r="H14">
-        <v>0.424672</v>
+        <v>0.682385</v>
       </c>
       <c r="I14">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="J14">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N14">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O14">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P14">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q14">
-        <v>3.460764713265778</v>
+        <v>6.704210698233889</v>
       </c>
       <c r="R14">
-        <v>31.14688241939201</v>
+        <v>60.337896284105</v>
       </c>
       <c r="S14">
-        <v>5.672242602267427E-05</v>
+        <v>0.0001396328807284489</v>
       </c>
       <c r="T14">
-        <v>5.672242602267429E-05</v>
+        <v>0.0001396328807284489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1415573333333333</v>
+        <v>0.2274616666666667</v>
       </c>
       <c r="H15">
-        <v>0.424672</v>
+        <v>0.682385</v>
       </c>
       <c r="I15">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="J15">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>54.332227</v>
       </c>
       <c r="O15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q15">
-        <v>2.563708389393778</v>
+        <v>4.119499635710556</v>
       </c>
       <c r="R15">
-        <v>23.073375504544</v>
+        <v>37.07549672139501</v>
       </c>
       <c r="S15">
-        <v>4.20195452478107E-05</v>
+        <v>8.579945159623219E-05</v>
       </c>
       <c r="T15">
-        <v>4.20195452478107E-05</v>
+        <v>8.579945159623219E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1415573333333333</v>
+        <v>0.2274616666666667</v>
       </c>
       <c r="H16">
-        <v>0.424672</v>
+        <v>0.682385</v>
       </c>
       <c r="I16">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="J16">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N16">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O16">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P16">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q16">
-        <v>0.8586672490880001</v>
+        <v>1.646389910397222</v>
       </c>
       <c r="R16">
-        <v>7.728005241792001</v>
+        <v>14.817509193575</v>
       </c>
       <c r="S16">
-        <v>1.407367837743751E-05</v>
+        <v>3.429041483609362E-05</v>
       </c>
       <c r="T16">
-        <v>1.407367837743751E-05</v>
+        <v>3.429041483609362E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1415573333333333</v>
+        <v>0.2274616666666667</v>
       </c>
       <c r="H17">
-        <v>0.424672</v>
+        <v>0.682385</v>
       </c>
       <c r="I17">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="J17">
-        <v>0.0003000162501266517</v>
+        <v>0.0004719282425245631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N17">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O17">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P17">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q17">
-        <v>11.421536028448</v>
+        <v>10.18864858205333</v>
       </c>
       <c r="R17">
-        <v>102.793824256032</v>
+        <v>91.69783723847999</v>
       </c>
       <c r="S17">
-        <v>0.0001872006004787292</v>
+        <v>0.0002122054953637885</v>
       </c>
       <c r="T17">
-        <v>0.0001872006004787292</v>
+        <v>0.0002122054953637885</v>
       </c>
     </row>
   </sheetData>
